--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC7A221-DB02-4EA7-9DE7-142BDF36AA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA7C32-194A-4341-8E75-56E65A88A83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Rédaction rapport</t>
-  </si>
-  <si>
-    <t>Préparation présentation</t>
-  </si>
-  <si>
-    <t>Présentation finale</t>
   </si>
   <si>
     <t>Design de des parties mécaniques</t>
@@ -88,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-100C]dddd\,\ d\.\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-100C]dddd\,\ d\.\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -115,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,21 +162,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -187,15 +187,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AL16"/>
+  <dimension ref="B2:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -502,7 +512,7 @@
   <sheetData>
     <row r="2" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -728,9 +738,9 @@
     </row>
     <row r="4" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -772,8 +782,8 @@
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
@@ -815,13 +825,13 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="2"/>
@@ -851,7 +861,7 @@
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -862,9 +872,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="3"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="3"/>
@@ -892,7 +902,7 @@
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -908,8 +918,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -951,14 +961,14 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="2"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="3"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -992,9 +1002,9 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1033,16 +1043,16 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
       <c r="V11" s="2"/>
       <c r="W11" s="3"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -1083,11 +1093,11 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="3"/>
+      <c r="AB12" s="14"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
@@ -1097,48 +1107,48 @@
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1175,89 +1185,7 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-    </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-    </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
+      <c r="AL14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA7C32-194A-4341-8E75-56E65A88A83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB13339-3500-4911-A0F7-F2F288BE4CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]dddd\,\ d\.\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -206,6 +214,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +516,7 @@
   <dimension ref="B2:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -784,7 +801,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -920,7 +937,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -961,14 +978,14 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="15"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" s="2"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="14"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="18"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -1002,13 +1019,13 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="15"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -1042,24 +1059,24 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="2"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="2"/>
+      <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
@@ -1093,14 +1110,14 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="14"/>
+      <c r="AB12" s="18"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
       <c r="AG12" s="3"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB13339-3500-4911-A0F7-F2F288BE4CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90D20F-EA00-4A3C-93E6-B1A114C029DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Montage PCB</t>
-  </si>
-  <si>
-    <t>Réalisation des softwares</t>
   </si>
   <si>
     <t>Impression ou usinage mécanique</t>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>No jour de travail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Réalisation du software</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -166,11 +169,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -181,9 +284,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,9 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -214,13 +311,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,296 +644,296 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AL14"/>
+  <dimension ref="A2:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" customWidth="1"/>
-    <col min="2" max="2" width="36.73046875" customWidth="1"/>
-    <col min="3" max="38" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="39" max="55" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="36.73046875" customWidth="1"/>
+    <col min="2" max="37" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="54" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8">
         <v>12</v>
       </c>
-      <c r="C2" s="12">
+      <c r="N2" s="8">
+        <v>13</v>
+      </c>
+      <c r="O2" s="8">
+        <v>14</v>
+      </c>
+      <c r="P2" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>16</v>
+      </c>
+      <c r="R2" s="11">
+        <v>17</v>
+      </c>
+      <c r="S2" s="11">
+        <v>18</v>
+      </c>
+      <c r="T2" s="11">
+        <v>19</v>
+      </c>
+      <c r="U2" s="11">
+        <v>20</v>
+      </c>
+      <c r="V2" s="11">
+        <v>21</v>
+      </c>
+      <c r="W2" s="8">
+        <v>22</v>
+      </c>
+      <c r="X2" s="8">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="143.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17">
+        <v>45145</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45146</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45147</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45148</v>
+      </c>
+      <c r="F3" s="10">
+        <v>45149</v>
+      </c>
+      <c r="G3" s="10">
+        <v>45150</v>
+      </c>
+      <c r="H3" s="10">
+        <v>45151</v>
+      </c>
+      <c r="I3" s="9">
+        <v>45152</v>
+      </c>
+      <c r="J3" s="9">
+        <v>45153</v>
+      </c>
+      <c r="K3" s="9">
+        <v>45154</v>
+      </c>
+      <c r="L3" s="9">
+        <v>45155</v>
+      </c>
+      <c r="M3" s="9">
+        <v>45156</v>
+      </c>
+      <c r="N3" s="9">
+        <v>45157</v>
+      </c>
+      <c r="O3" s="9">
+        <v>45158</v>
+      </c>
+      <c r="P3" s="10">
+        <v>45159</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>45160</v>
+      </c>
+      <c r="R3" s="10">
+        <v>45161</v>
+      </c>
+      <c r="S3" s="10">
+        <v>45162</v>
+      </c>
+      <c r="T3" s="10">
+        <v>45163</v>
+      </c>
+      <c r="U3" s="10">
+        <v>45164</v>
+      </c>
+      <c r="V3" s="10">
+        <v>45165</v>
+      </c>
+      <c r="W3" s="9">
+        <v>45166</v>
+      </c>
+      <c r="X3" s="9">
+        <v>45167</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>45168</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>45169</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>45170</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>45171</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>45172</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>45173</v>
+      </c>
+      <c r="AE3" s="10">
+        <v>45174</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>45175</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>45176</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>45177</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>45178</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>45179</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+    </row>
+    <row r="5" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12">
-        <v>5</v>
-      </c>
-      <c r="H2" s="12">
-        <v>6</v>
-      </c>
-      <c r="I2" s="12">
-        <v>7</v>
-      </c>
-      <c r="J2" s="9">
-        <v>8</v>
-      </c>
-      <c r="K2" s="9">
-        <v>9</v>
-      </c>
-      <c r="L2" s="9">
-        <v>10</v>
-      </c>
-      <c r="M2" s="9">
-        <v>11</v>
-      </c>
-      <c r="N2" s="9">
-        <v>12</v>
-      </c>
-      <c r="O2" s="9">
-        <v>13</v>
-      </c>
-      <c r="P2" s="9">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>15</v>
-      </c>
-      <c r="R2" s="12">
-        <v>16</v>
-      </c>
-      <c r="S2" s="12">
-        <v>17</v>
-      </c>
-      <c r="T2" s="12">
-        <v>18</v>
-      </c>
-      <c r="U2" s="12">
-        <v>19</v>
-      </c>
-      <c r="V2" s="12">
-        <v>20</v>
-      </c>
-      <c r="W2" s="12">
-        <v>21</v>
-      </c>
-      <c r="X2" s="9">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>28</v>
-      </c>
-      <c r="AE2" s="12">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="12">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="12">
-        <v>31</v>
-      </c>
-      <c r="AH2" s="12">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="12">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="12">
-        <v>34</v>
-      </c>
-      <c r="AK2" s="12">
-        <v>35</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:38" ht="142.9" x14ac:dyDescent="0.45">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>45145</v>
-      </c>
-      <c r="D3" s="11">
-        <v>45146</v>
-      </c>
-      <c r="E3" s="11">
-        <v>45147</v>
-      </c>
-      <c r="F3" s="11">
-        <v>45148</v>
-      </c>
-      <c r="G3" s="11">
-        <v>45149</v>
-      </c>
-      <c r="H3" s="11">
-        <v>45150</v>
-      </c>
-      <c r="I3" s="11">
-        <v>45151</v>
-      </c>
-      <c r="J3" s="10">
-        <v>45152</v>
-      </c>
-      <c r="K3" s="10">
-        <v>45153</v>
-      </c>
-      <c r="L3" s="10">
-        <v>45154</v>
-      </c>
-      <c r="M3" s="10">
-        <v>45155</v>
-      </c>
-      <c r="N3" s="10">
-        <v>45156</v>
-      </c>
-      <c r="O3" s="10">
-        <v>45157</v>
-      </c>
-      <c r="P3" s="10">
-        <v>45158</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>45159</v>
-      </c>
-      <c r="R3" s="11">
-        <v>45160</v>
-      </c>
-      <c r="S3" s="11">
-        <v>45161</v>
-      </c>
-      <c r="T3" s="11">
-        <v>45162</v>
-      </c>
-      <c r="U3" s="11">
-        <v>45163</v>
-      </c>
-      <c r="V3" s="11">
-        <v>45164</v>
-      </c>
-      <c r="W3" s="11">
-        <v>45165</v>
-      </c>
-      <c r="X3" s="10">
-        <v>45166</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>45167</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>45168</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>45169</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>45170</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>45171</v>
-      </c>
-      <c r="AD3" s="10">
-        <v>45172</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>45173</v>
-      </c>
-      <c r="AF3" s="11">
-        <v>45174</v>
-      </c>
-      <c r="AG3" s="11">
-        <v>45175</v>
-      </c>
-      <c r="AH3" s="11">
-        <v>45176</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>45177</v>
-      </c>
-      <c r="AJ3" s="11">
-        <v>45178</v>
-      </c>
-      <c r="AK3" s="11">
-        <v>45179</v>
-      </c>
-      <c r="AL3" s="10">
-        <v>45180</v>
-      </c>
-    </row>
-    <row r="4" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-    </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -830,27 +961,27 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -871,15 +1002,15 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -888,17 +1019,17 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="2"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -912,15 +1043,15 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -934,10 +1065,10 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="17"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -953,15 +1084,15 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -978,14 +1109,14 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="18"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -994,15 +1125,15 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1019,13 +1150,13 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -1035,15 +1166,15 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1058,35 +1189,35 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+    <row r="12" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1109,66 +1240,68 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="18"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
+    <row r="13" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1199,13 +1332,12 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="16"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90D20F-EA00-4A3C-93E6-B1A114C029DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6BA720-D8AF-46C3-91C2-FE0C17E99FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -269,11 +269,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -344,14 +355,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,10 +667,10 @@
   <dimension ref="A2:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36.73046875" customWidth="1"/>
     <col min="2" max="37" width="3.19921875" bestFit="1" customWidth="1"/>
@@ -770,7 +790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="143.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:37" ht="142.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -932,11 +952,11 @@
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="24"/>
-      <c r="F5" s="26"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -965,20 +985,20 @@
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
@@ -1013,12 +1033,12 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -1215,9 +1235,9 @@
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1255,7 +1275,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="24"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6BA720-D8AF-46C3-91C2-FE0C17E99FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47033112-334A-48B0-801C-F244E1A9C74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -372,6 +372,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,7 +682,7 @@
   <dimension ref="A2:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -957,7 +972,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -998,9 +1013,9 @@
       <c r="H6" s="32"/>
       <c r="I6" s="29"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1026,7 +1041,7 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -1039,12 +1054,12 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="3"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="33"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1081,12 +1096,12 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1126,7 +1141,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="23"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="13"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47033112-334A-48B0-801C-F244E1A9C74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E64B0AE-15E6-48F2-B1F4-ED5CB7D0635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Design de des parties mécaniques</t>
   </si>
   <si>
-    <t>Design du PCB</t>
-  </si>
-  <si>
     <t>Finalisation/corrections/documentation</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Réalisation du software</t>
+  </si>
+  <si>
+    <t>Design du PCB + BOM</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -380,13 +380,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,7 +685,7 @@
   <dimension ref="A2:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -694,7 +697,7 @@
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -920,7 +923,7 @@
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="21"/>
@@ -1015,10 +1018,10 @@
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="30"/>
-      <c r="M6" s="36"/>
+      <c r="M6" s="35"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1043,7 +1046,7 @@
     </row>
     <row r="7" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1058,10 +1061,10 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="35"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="2"/>
@@ -1082,7 +1085,7 @@
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1099,11 +1102,11 @@
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="37"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1142,8 +1145,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="23"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="2"/>
@@ -1207,7 +1210,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1286,7 +1289,7 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1332,7 +1335,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E64B0AE-15E6-48F2-B1F4-ED5CB7D0635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2596E3F-D967-48E0-88CD-8EA2E31DB772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -280,11 +280,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -322,9 +333,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -386,10 +394,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +705,7 @@
   <dimension ref="A2:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -812,7 +832,7 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>45145</v>
       </c>
       <c r="C3" s="10">
@@ -922,13 +942,13 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -966,16 +986,16 @@
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1008,20 +1028,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="35"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="27"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1051,20 +1071,20 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="35"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="34"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="2"/>
@@ -1099,14 +1119,14 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="37"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="38"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1126,7 +1146,7 @@
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1144,11 +1164,11 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="37"/>
       <c r="U9" s="2"/>
       <c r="V9" s="3"/>
       <c r="W9" s="2"/>
@@ -1167,7 +1187,7 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1208,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="15"/>
+      <c r="S10" s="40"/>
       <c r="T10" s="13"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1208,7 +1228,7 @@
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1228,9 +1248,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="37"/>
       <c r="U11" s="2"/>
       <c r="V11" s="3"/>
       <c r="W11" s="13"/>
@@ -1253,24 +1273,24 @@
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="41"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1293,28 +1313,28 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="37"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
@@ -1337,24 +1357,24 @@
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2596E3F-D967-48E0-88CD-8EA2E31DB772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0095743D-271C-4C06-85B0-791805C2A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -291,11 +291,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -410,6 +423,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -705,7 +727,7 @@
   <dimension ref="A2:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1127,7 +1149,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="31"/>
       <c r="S8" s="38"/>
-      <c r="T8" s="2"/>
+      <c r="T8" s="26"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -1168,8 +1190,8 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="27"/>
       <c r="S9" s="28"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="2"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="42"/>
       <c r="V9" s="3"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -1209,8 +1231,8 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="40"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="2"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="26"/>
       <c r="V10" s="2"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -1249,9 +1271,9 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="39"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="2"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="42"/>
       <c r="V11" s="3"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
@@ -1291,8 +1313,8 @@
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="41"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1334,8 +1356,8 @@
       <c r="Q13" s="28"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="13"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="37"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
@@ -1375,7 +1397,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
-      <c r="T14" s="2"/>
+      <c r="T14" s="22"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0095743D-271C-4C06-85B0-791805C2A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7375F9-8C23-400E-A830-F9129685EEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Montage PCB</t>
-  </si>
-  <si>
-    <t>Impression ou usinage mécanique</t>
   </si>
   <si>
     <t>Mise en service et tests</t>
@@ -87,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]dddd\,\ d\.\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +104,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -296,6 +285,19 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -419,19 +421,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -724,10 +726,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AK14"/>
+  <dimension ref="A2:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -739,7 +741,7 @@
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -965,7 +967,7 @@
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="20"/>
@@ -1088,7 +1090,7 @@
     </row>
     <row r="7" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1129,7 +1131,7 @@
     </row>
     <row r="8" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1152,7 +1154,7 @@
       <c r="T8" s="26"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -1191,11 +1193,11 @@
       <c r="R9" s="27"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="3"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="34"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -1211,7 +1213,7 @@
     </row>
     <row r="10" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1228,193 +1230,152 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
     </row>
     <row r="11" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
+      <c r="AK11" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
     </row>
-    <row r="13" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
       <c r="AK13" s="14"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7375F9-8C23-400E-A830-F9129685EEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97205F5-A34B-4962-A697-1AE8E1B5819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
   <dimension ref="A2:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1198,7 +1198,7 @@
       <c r="W9" s="31"/>
       <c r="X9" s="38"/>
       <c r="Y9" s="34"/>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="26"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -1239,8 +1239,8 @@
       <c r="W10" s="42"/>
       <c r="X10" s="28"/>
       <c r="Y10" s="44"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="12"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="19"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="12"/>
@@ -1277,10 +1277,10 @@
       <c r="T11" s="40"/>
       <c r="U11" s="22"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="2"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -1319,12 +1319,12 @@
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
       <c r="U12" s="37"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="42"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
+      <c r="AA12" s="37"/>
       <c r="AB12" s="13"/>
       <c r="AC12" s="12"/>
       <c r="AD12" s="12"/>
@@ -1361,10 +1361,10 @@
       <c r="T13" s="22"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97205F5-A34B-4962-A697-1AE8E1B5819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85D65D2-E56C-416A-A974-967876B6CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -434,6 +434,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,7 +735,7 @@
   <dimension ref="A2:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1199,10 +1205,10 @@
       <c r="X9" s="38"/>
       <c r="Y9" s="34"/>
       <c r="Z9" s="26"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="26"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
+      <c r="AD9" s="26"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -1240,11 +1246,11 @@
       <c r="X10" s="28"/>
       <c r="Y10" s="44"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="19"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
@@ -1281,10 +1287,10 @@
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
-      <c r="AA11" s="3"/>
+      <c r="AA11" s="45"/>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="46"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="13"/>
@@ -1320,15 +1326,15 @@
       <c r="T12" s="28"/>
       <c r="U12" s="37"/>
       <c r="V12" s="39"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="13"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="37"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="37"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="19"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
@@ -1367,8 +1373,8 @@
       <c r="Z13" s="22"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85D65D2-E56C-416A-A974-967876B6CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DBCFB3-3734-4677-948A-9A273E20E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,9 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,6 +437,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +735,7 @@
   <dimension ref="A2:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -862,7 +862,7 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>45145</v>
       </c>
       <c r="C3" s="10">
@@ -972,13 +972,13 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1016,16 +1016,16 @@
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1058,20 +1058,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="34"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="26"/>
+      <c r="P6" s="25"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1101,20 +1101,20 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="34"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="33"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="2"/>
@@ -1149,18 +1149,18 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="26"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="25"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="26"/>
+      <c r="W8" s="25"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -1194,23 +1194,23 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="5"/>
@@ -1236,24 +1236,24 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="12"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
@@ -1262,39 +1262,39 @@
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="22"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="21"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="45"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="44"/>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5" t="s">
@@ -1302,86 +1302,86 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
+      <c r="AF13" s="21"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
-      <c r="AK13" s="14"/>
+      <c r="AK13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DBCFB3-3734-4677-948A-9A273E20E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B09C763-6E80-4B1F-8F93-A98D98C3E7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -159,22 +159,95 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -187,6 +260,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -197,19 +326,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -250,21 +366,58 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -278,39 +431,13 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -325,121 +452,133 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,10 +871,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AK13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -745,240 +884,241 @@
     <col min="38" max="54" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>5</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <v>6</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>7</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="10">
         <v>8</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="10">
         <v>9</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="10">
         <v>10</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="10">
         <v>11</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="10">
         <v>12</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="10">
         <v>13</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="10">
         <v>14</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="9">
         <v>15</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="9">
         <v>16</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="9">
         <v>17</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="9">
         <v>18</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="9">
         <v>19</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="9">
         <v>20</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="9">
         <v>21</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="10">
         <v>22</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="10">
         <v>23</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="10">
         <v>24</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="10">
         <v>25</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="10">
         <v>26</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="10">
         <v>27</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="10">
         <v>28</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="9">
         <v>29</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="9">
         <v>30</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="9">
         <v>31</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="9">
         <v>32</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="9">
         <v>33</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2" s="9">
         <v>34</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="9">
         <v>35</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AK2" s="11">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="142.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="7">
         <v>45145</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>45146</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>45147</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>45148</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>45149</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>45150</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>45151</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="18">
         <v>45152</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="18">
         <v>45153</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="18">
         <v>45154</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="18">
         <v>45155</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="18">
         <v>45156</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="18">
         <v>45157</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="18">
         <v>45158</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="7">
         <v>45159</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="7">
         <v>45160</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="7">
         <v>45161</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="7">
         <v>45162</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="7">
         <v>45163</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="7">
         <v>45164</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="7">
         <v>45165</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="18">
         <v>45166</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="18">
         <v>45167</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="18">
         <v>45168</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="18">
         <v>45169</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="18">
         <v>45170</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="18">
         <v>45171</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="18">
         <v>45172</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="7">
         <v>45173</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="7">
         <v>45174</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="7">
         <v>45175</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AG3" s="7">
         <v>45176</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="7">
         <v>45177</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AI3" s="7">
         <v>45178</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AJ3" s="7">
         <v>45179</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AK3" s="19">
         <v>45180</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1010,22 +1150,22 @@
       <c r="AH4" s="4"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
+      <c r="AK4" s="14"/>
     </row>
     <row r="5" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1051,27 +1191,27 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
+      <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="33"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="25"/>
+      <c r="P6" s="34"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1092,29 +1232,29 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
+      <c r="AK6" s="14"/>
     </row>
     <row r="7" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="33"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="2"/>
@@ -1133,10 +1273,10 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
+      <c r="AK7" s="14"/>
     </row>
     <row r="8" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
@@ -1149,35 +1289,35 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="25"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="34"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="25"/>
+      <c r="W8" s="34"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
+      <c r="AD8" s="34"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
+      <c r="AK8" s="14"/>
     </row>
     <row r="9" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2"/>
@@ -1194,31 +1334,31 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
       <c r="U9" s="40"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
+      <c r="AK9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
@@ -1236,152 +1376,152 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="27"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
       <c r="U10" s="40"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="5"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="44"/>
       <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
+      <c r="AK10" s="14"/>
     </row>
     <row r="11" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="21"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="44"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="20"/>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5" t="s">
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="49"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="13"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-PLANNING_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B09C763-6E80-4B1F-8F93-A98D98C3E7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA7BAA5-2326-4E47-9A0C-F0E3443B61D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -401,17 +401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -437,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -562,25 +551,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,7 +862,7 @@
   <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1419,25 +1407,25 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="54"/>
+      <c r="W11" s="52"/>
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="37"/>
-      <c r="AD11" s="52"/>
+      <c r="AD11" s="50"/>
       <c r="AE11" s="20"/>
-      <c r="AF11" s="52"/>
+      <c r="AF11" s="50"/>
       <c r="AG11" s="36"/>
       <c r="AH11" s="29"/>
       <c r="AI11" s="45"/>
       <c r="AJ11" s="44"/>
-      <c r="AK11" s="14" t="s">
+      <c r="AK11" s="53" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1474,54 +1462,54 @@
       <c r="AB12" s="42"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
-      <c r="AE12" s="53"/>
+      <c r="AE12" s="51"/>
       <c r="AF12" s="26"/>
-      <c r="AG12" s="51"/>
+      <c r="AG12" s="49"/>
       <c r="AH12" s="29"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="49"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
     </row>
     <row r="13" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
-      <c r="W13" s="48"/>
+      <c r="W13" s="47"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
       <c r="AE13" s="16"/>
-      <c r="AF13" s="48"/>
+      <c r="AF13" s="47"/>
       <c r="AG13" s="16"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
